--- a/output/fit_clients/fit_round_446.xlsx
+++ b/output/fit_clients/fit_round_446.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1957140383.588681</v>
+        <v>1949564947.960919</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1106945937671895</v>
+        <v>0.1062402130158076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03727311954412718</v>
+        <v>0.04217395077939755</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>978570181.6624674</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2125679013.460506</v>
+        <v>2157389725.141202</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1156110830652784</v>
+        <v>0.1529391238436528</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03389462486026846</v>
+        <v>0.03399393164066266</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1062839566.268645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4207431083.128868</v>
+        <v>4998263143.939747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1195825945048781</v>
+        <v>0.1191040950142422</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03139231881172156</v>
+        <v>0.03720539589936464</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>161</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2103715570.457839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3576335915.671612</v>
+        <v>3372647076.177203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1008010632018507</v>
+        <v>0.0749034694907954</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03333180138554046</v>
+        <v>0.03547001674178635</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>165</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1788167989.608334</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1859400917.44902</v>
+        <v>1888915956.065917</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09816748312263109</v>
+        <v>0.09117874822597676</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0402389623391393</v>
+        <v>0.05350286372643166</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84</v>
-      </c>
-      <c r="J6" t="n">
-        <v>929700503.5563028</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3068130841.221947</v>
+        <v>2180015866.596478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08037703308955665</v>
+        <v>0.07149965932107406</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04537851947001064</v>
+        <v>0.03101468325661623</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>140</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1534065378.950261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3259895151.119186</v>
+        <v>3513446751.730961</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2093507156543175</v>
+        <v>0.2054997296477692</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02328599979116725</v>
+        <v>0.02483518043761656</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>142</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1629947659.663764</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1861168498.83573</v>
+        <v>1398131588.446644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1962184325665801</v>
+        <v>0.1715400829128753</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0282523434954048</v>
+        <v>0.03383391899988376</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>930584295.3157519</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5883791860.390358</v>
+        <v>4431022790.951638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1741171008591942</v>
+        <v>0.1649116142219353</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04571327850762692</v>
+        <v>0.04619421776891484</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>188</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2941896097.940636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3546546651.98869</v>
+        <v>3438163997.564887</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1558842330987477</v>
+        <v>0.1313623485081732</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04626131005239335</v>
+        <v>0.04661342844300041</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>185</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1773273307.113772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2057662394.881731</v>
+        <v>2621244258.858876</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1888549061784636</v>
+        <v>0.1276979781648422</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04637327239407909</v>
+        <v>0.05107936175401125</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>152</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1028831129.162189</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4700864372.622056</v>
+        <v>4031904240.422913</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06202336367638582</v>
+        <v>0.06669613065973164</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02755571781485136</v>
+        <v>0.02115771066471612</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>150</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2350432205.660356</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3180329422.992353</v>
+        <v>3787639226.856294</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1395658197767505</v>
+        <v>0.1397213157426214</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02999424656325122</v>
+        <v>0.03325435159385395</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>144</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1590164732.895226</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1534803498.637151</v>
+        <v>1622743807.068864</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1085324665274325</v>
+        <v>0.09192282376315858</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03618309184809138</v>
+        <v>0.03701478525604837</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>767401842.7299428</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2825404622.366799</v>
+        <v>2047253258.36346</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09610402670684684</v>
+        <v>0.08303692084276861</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03173834390149056</v>
+        <v>0.03440974919256268</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>92</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1412702312.961314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4910178996.994756</v>
+        <v>4410530032.60533</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1458168666528917</v>
+        <v>0.1508717736319227</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04912850137110539</v>
+        <v>0.03342946962467899</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2455089488.119224</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2598980786.529898</v>
+        <v>3079591588.547375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1709736009566045</v>
+        <v>0.183318951642613</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03378451313370019</v>
+        <v>0.02394361678692903</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>146</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1299490452.556107</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1348614596.317159</v>
+        <v>1163662932.098048</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1161842587022327</v>
+        <v>0.1654236620641777</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02211872447994358</v>
+        <v>0.02693203757837929</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>674307412.2577126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1908597706.652985</v>
+        <v>2684492508.22384</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13888190456115</v>
+        <v>0.1363639139336744</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02002564743100483</v>
+        <v>0.03072412678809526</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>954298889.4379057</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1708712200.201616</v>
+        <v>2567562288.97144</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08102706780444995</v>
+        <v>0.07601938318856824</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03222149218665088</v>
+        <v>0.02842901048404006</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>854356163.9122626</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3606644969.820312</v>
+        <v>3138193975.977836</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1244257975430578</v>
+        <v>0.1034510432967001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05540166130648252</v>
+        <v>0.04675251369967506</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1803322510.135033</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>938130569.8631791</v>
+        <v>1487606046.612799</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1731325540005181</v>
+        <v>0.1524357104011011</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03540279574914634</v>
+        <v>0.04543404492136067</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>469065365.5456236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2783739660.376947</v>
+        <v>3799442631.392998</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09433722995694138</v>
+        <v>0.1216509277420348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0274813880276459</v>
+        <v>0.03060458816569541</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>130</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1391869879.990061</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1279204185.83332</v>
+        <v>1014939648.300332</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09935355347285847</v>
+        <v>0.09205218540949013</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01961101772089653</v>
+        <v>0.03082206869418523</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>639602092.6861467</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>900677978.3819582</v>
+        <v>1290211471.383023</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09083871347901941</v>
+        <v>0.09604823521059686</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03303350136866279</v>
+        <v>0.02705600260251264</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>450338936.9915405</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3579835321.754322</v>
+        <v>4519205566.309875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.155905053964338</v>
+        <v>0.1226848346366361</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01713968784534968</v>
+        <v>0.0269676769307516</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1789917691.940964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3880855104.213454</v>
+        <v>3350634605.756763</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1277723468337356</v>
+        <v>0.1112028124430701</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03539989719612376</v>
+        <v>0.03331595529509322</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>145</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1940427639.842416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5541781735.400979</v>
+        <v>5006571342.454054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1069901061537682</v>
+        <v>0.1386470136586049</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04468614547777038</v>
+        <v>0.0358095442896681</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>197</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2770890777.723371</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2057968697.747577</v>
+        <v>1956519086.473568</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1311200841669088</v>
+        <v>0.1235818698247775</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03497601302201506</v>
+        <v>0.02453677783711057</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1028984392.986298</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1384820732.595347</v>
+        <v>1410575073.802724</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1074665508385509</v>
+        <v>0.09867894233804124</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0519777752045111</v>
+        <v>0.046635543718519</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>692410274.2832633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1390927956.912552</v>
+        <v>1378170855.425873</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1018209240063622</v>
+        <v>0.07873476572159199</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03754323509038618</v>
+        <v>0.03735276646821933</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>695464024.2464695</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1938159339.04728</v>
+        <v>2573290545.547781</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2042878058040651</v>
+        <v>0.175407304011051</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04749291859098925</v>
+        <v>0.05701160012804254</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>137</v>
-      </c>
-      <c r="J33" t="n">
-        <v>969079755.5830234</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1099245335.898041</v>
+        <v>1166447395.493356</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1000555168936045</v>
+        <v>0.1091395827470963</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02365334658598065</v>
+        <v>0.02072777658620635</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>549622689.5479684</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1050988897.971546</v>
+        <v>1151156338.103134</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09089010636760519</v>
+        <v>0.1081621317947123</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04517152858605421</v>
+        <v>0.03619661427227212</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>525494456.3969826</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3083318486.579431</v>
+        <v>2175193035.90869</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1693163144028629</v>
+        <v>0.1573459734205894</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0282753989081703</v>
+        <v>0.02342411457355404</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>112</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1541659218.564516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2836367410.410616</v>
+        <v>2170844073.547012</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09181012059989108</v>
+        <v>0.1028653397439293</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02664555968877296</v>
+        <v>0.04016657805093598</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>119</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1418183847.543643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1515294838.085555</v>
+        <v>1472461572.62079</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09202165246815082</v>
+        <v>0.08585672079316346</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03222392946504977</v>
+        <v>0.02734352955796246</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>757647466.1543602</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1984534917.818041</v>
+        <v>2073435377.881522</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1503573822661179</v>
+        <v>0.1817024137771026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02700225776264143</v>
+        <v>0.03194425989163549</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>992267455.8054273</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1268196047.872829</v>
+        <v>1640941980.05971</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1385090560639822</v>
+        <v>0.1040794221699932</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05951042744326724</v>
+        <v>0.0499731058720195</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>634098048.1844107</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1822986879.057949</v>
+        <v>2177378185.356708</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1260312534808214</v>
+        <v>0.1117537101196774</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03390293030889648</v>
+        <v>0.04314634490434838</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>911493531.1473364</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4126458555.901802</v>
+        <v>4165710453.029331</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09559096446775268</v>
+        <v>0.07835996475768084</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04094827096123023</v>
+        <v>0.03040227286060314</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2063229315.932877</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2317043549.776567</v>
+        <v>2438551891.115702</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1611678473624893</v>
+        <v>0.1519234739531127</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02552581723655405</v>
+        <v>0.01804183114858821</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>155</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1158521841.97446</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2033802558.738002</v>
+        <v>1696975852.547465</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07253219689535352</v>
+        <v>0.1002662686949208</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03397692212448321</v>
+        <v>0.02686171862095629</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1016901392.459369</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1963220226.153781</v>
+        <v>2153451289.630497</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1808973325232258</v>
+        <v>0.1314026636046677</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05231075550456191</v>
+        <v>0.03812452320259919</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>981610100.2948903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5152042416.710819</v>
+        <v>5676009945.521367</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1660919641974308</v>
+        <v>0.1104958212532116</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05563784466698253</v>
+        <v>0.0416989468330689</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>159</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2576021243.855333</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3139773076.296434</v>
+        <v>4906729243.590425</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1462166014303261</v>
+        <v>0.1812407576251337</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03659038240516405</v>
+        <v>0.04772470496989453</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1569886488.548131</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4364544765.709539</v>
+        <v>4617940513.363384</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0734934866286427</v>
+        <v>0.08906519624024917</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02436829920324212</v>
+        <v>0.03313487017305408</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>146</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2182272396.032046</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1734577359.893288</v>
+        <v>1527676623.693267</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1358646606458229</v>
+        <v>0.1575994164780817</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04273276547240742</v>
+        <v>0.027320058416752</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>867288675.5206411</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2759519760.563357</v>
+        <v>4152740539.674463</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1464850500446549</v>
+        <v>0.1710587701058824</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04627582773764955</v>
+        <v>0.04159068178364386</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>153</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1379759957.224251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>980355366.7496967</v>
+        <v>1169184342.642502</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1734882844674721</v>
+        <v>0.1909371853438251</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0416569463626485</v>
+        <v>0.05124873933596422</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>490177770.5331929</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4011162054.816865</v>
+        <v>4157911308.936084</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1367710188833125</v>
+        <v>0.08522139013416317</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05179122138003708</v>
+        <v>0.0594672425879474</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>184</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2005581083.251941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2676375330.535607</v>
+        <v>3244241218.365869</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1877067972222334</v>
+        <v>0.1351713742279042</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02568752882482844</v>
+        <v>0.0269959089567042</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1338187720.034275</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4819095469.193089</v>
+        <v>3476424998.616394</v>
       </c>
       <c r="F54" t="n">
-        <v>0.118175877371597</v>
+        <v>0.1501495007372781</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0408178801078676</v>
+        <v>0.039475308594694</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>146</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2409547863.011412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3127191884.673375</v>
+        <v>3810146669.253302</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1936243256860511</v>
+        <v>0.1598184125794984</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02173195654722118</v>
+        <v>0.02258211436709972</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1563595878.773968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1461205929.387033</v>
+        <v>1260168954.457733</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1427555249835027</v>
+        <v>0.1521252833843581</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04850529018351851</v>
+        <v>0.04388173151525358</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>730603012.7159959</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3483624564.32901</v>
+        <v>4070947402.036958</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1181807922427113</v>
+        <v>0.1202040007637012</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02341218098619274</v>
+        <v>0.01784143124600357</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>142</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1741812327.195204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1756430376.039775</v>
+        <v>1525450711.551478</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1701268945991532</v>
+        <v>0.1991889406336979</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02809003012869247</v>
+        <v>0.0317004783514572</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>878215195.7690281</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4049889447.473966</v>
+        <v>4213006112.485692</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0860253513649078</v>
+        <v>0.09382107066882488</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03585050732584267</v>
+        <v>0.03026999956082652</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>124</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2024944697.295553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3775358402.829916</v>
+        <v>2773331528.833976</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1471739919142065</v>
+        <v>0.1930444106687977</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0263519417006763</v>
+        <v>0.03173469371620913</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>138</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1887679353.11267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2963209467.924823</v>
+        <v>2732630009.532381</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1428550753713779</v>
+        <v>0.121064415864542</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03085874668717999</v>
+        <v>0.02641562696377394</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>153</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1481604717.918812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1775560194.153935</v>
+        <v>1831245899.766253</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1329240236619911</v>
+        <v>0.1535369739393568</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04419122399303721</v>
+        <v>0.04108114824066018</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>887780121.4908924</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3738245202.881338</v>
+        <v>4512760037.304967</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08318546822430518</v>
+        <v>0.09191446931740377</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03026268507516238</v>
+        <v>0.03020657541824974</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>129</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1869122675.511813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5001019194.320431</v>
+        <v>4022807420.389622</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1764670508548383</v>
+        <v>0.1776536329004489</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02211183160713052</v>
+        <v>0.03373907364558895</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>140</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2500509703.4547</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6006948305.250052</v>
+        <v>4940526391.178634</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1290928888157567</v>
+        <v>0.1665399750521784</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03011178440505265</v>
+        <v>0.03223968442034255</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>160</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3003474051.467509</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3550941563.947166</v>
+        <v>5266285229.353312</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09973348253174508</v>
+        <v>0.145926382900481</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05029541115086838</v>
+        <v>0.03299342812583974</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1775470731.55654</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3159933473.288773</v>
+        <v>3488658397.489002</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08409098355765901</v>
+        <v>0.07928307902659988</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0359043507660689</v>
+        <v>0.03307232118084253</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>142</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1579966741.405636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5933781462.528322</v>
+        <v>4935652372.653345</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1414024996981104</v>
+        <v>0.1581817831115371</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03755264554949177</v>
+        <v>0.04909668820216338</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2966890844.270551</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1963789209.846596</v>
+        <v>1813764580.387107</v>
       </c>
       <c r="F69" t="n">
-        <v>0.179165681773799</v>
+        <v>0.1377204113567054</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05405135576066054</v>
+        <v>0.03840142327605788</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>981894605.2419795</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3672347293.161189</v>
+        <v>2336418274.016016</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0810639553274496</v>
+        <v>0.08779053066849701</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03797368558161678</v>
+        <v>0.0445799137648482</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>128</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1836173667.322219</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4406548749.583094</v>
+        <v>3425734964.619229</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1272044941016293</v>
+        <v>0.1479374710036434</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02874035280505395</v>
+        <v>0.02464311992121753</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>162</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2203274436.24642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1606745315.051986</v>
+        <v>1712591770.876827</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09641124028147263</v>
+        <v>0.1028107948573929</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04065535202254871</v>
+        <v>0.05074283173107514</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>803372667.2849144</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3293228409.114111</v>
+        <v>2755999871.325108</v>
       </c>
       <c r="F73" t="n">
-        <v>0.108228565693236</v>
+        <v>0.07718614939684884</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04694160653443174</v>
+        <v>0.03249710056423236</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>169</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1646614173.709073</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3441395600.754334</v>
+        <v>3181548241.334878</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1844347122965776</v>
+        <v>0.1722615580236285</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03222686501869853</v>
+        <v>0.02794930258011645</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>152</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1720697827.63309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2302365128.906998</v>
+        <v>2309368542.756501</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1609537145859605</v>
+        <v>0.1112502418819703</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02609420044324472</v>
+        <v>0.02768670641730368</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1151182500.263893</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5055465038.671937</v>
+        <v>3229535276.850688</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09953942456185984</v>
+        <v>0.1038733794929623</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0296647071421073</v>
+        <v>0.02135993437744573</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2527732548.342134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2243639898.067654</v>
+        <v>1796135488.040982</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1510527807972214</v>
+        <v>0.1461475439140473</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02321460204691326</v>
+        <v>0.02683205705754841</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1121820046.536298</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4690287224.79187</v>
+        <v>3523166042.957228</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09333205453384313</v>
+        <v>0.1166445403311967</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05367866145850027</v>
+        <v>0.05199566687622542</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>155</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2345143528.753633</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1273021178.723838</v>
+        <v>1452174351.729806</v>
       </c>
       <c r="F79" t="n">
-        <v>0.156185812203523</v>
+        <v>0.108819084408893</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02823788223461342</v>
+        <v>0.04034377447402293</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>636510583.9046385</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3701343553.149615</v>
+        <v>5262552327.563185</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09244280067479345</v>
+        <v>0.08692832782945373</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03678487565380385</v>
+        <v>0.02393575798867937</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1850671761.205625</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3610559308.697897</v>
+        <v>3891694651.373383</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1058197159665915</v>
+        <v>0.1368980960692832</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0328647948267956</v>
+        <v>0.02838340876334989</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1805279603.130406</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4749591496.380047</v>
+        <v>3863525273.096368</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1750925279767298</v>
+        <v>0.1318062886827021</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0222556235626371</v>
+        <v>0.02831738514051095</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>157</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2374795746.140629</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2216641659.717227</v>
+        <v>1879183243.013927</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09894281328678987</v>
+        <v>0.1537302101897441</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04175620330084106</v>
+        <v>0.03372880151007911</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1108320842.119977</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2139117719.972063</v>
+        <v>2193588505.632478</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1051125711272994</v>
+        <v>0.09785299018100883</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03974738151270955</v>
+        <v>0.04130482189563905</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1069558844.611552</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2635217869.321318</v>
+        <v>2779935766.278912</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1607828624396901</v>
+        <v>0.1548896937274072</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03977133864161758</v>
+        <v>0.04629156405188511</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>168</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1317608954.538203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1689958369.274717</v>
+        <v>1988862942.229244</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1709283857469772</v>
+        <v>0.1153999662018658</v>
       </c>
       <c r="G86" t="n">
-        <v>0.017544134062701</v>
+        <v>0.02252470697411846</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>844979169.1565468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1284917579.083148</v>
+        <v>1070994418.324558</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1443753144307236</v>
+        <v>0.1629299209874513</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04094871889975011</v>
+        <v>0.03953056962544009</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>642458866.9006884</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2742718202.640232</v>
+        <v>2902535149.444218</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1614078324605532</v>
+        <v>0.1440638326943977</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03198486104168583</v>
+        <v>0.03038904889543561</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>177</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1371359106.349134</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2589039469.875137</v>
+        <v>2284413784.534713</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1566920444949201</v>
+        <v>0.1457329192026801</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03356553463319691</v>
+        <v>0.02813675768986624</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>151</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1294519803.205286</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1968321201.78322</v>
+        <v>1847673945.302023</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1187489770894147</v>
+        <v>0.115684363800869</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03830688271591708</v>
+        <v>0.03503776540214137</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>984160665.3568969</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2060285299.687396</v>
+        <v>2095185539.461406</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1739831624238808</v>
+        <v>0.1660344336558725</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05908030118644145</v>
+        <v>0.04948087733345269</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1030142614.094159</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2344552284.77279</v>
+        <v>2923154516.006155</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08396261462188138</v>
+        <v>0.07848872763152276</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03009704581931448</v>
+        <v>0.03142503237837718</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1172276114.601724</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4013222659.199103</v>
+        <v>4794648723.474936</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1137346013125951</v>
+        <v>0.08887750893154085</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03913930116696956</v>
+        <v>0.03438440035225644</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2006611329.390487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1693325068.74288</v>
+        <v>2205377331.201533</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1046346968291426</v>
+        <v>0.1428296661508995</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0261705207669874</v>
+        <v>0.03089715481067986</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>846662492.883273</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2907050579.582487</v>
+        <v>2678139052.573855</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08672284128245397</v>
+        <v>0.1209847304697874</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04161685274442095</v>
+        <v>0.04238191481541272</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1453525296.334117</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1966937290.601513</v>
+        <v>2239286696.675282</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1032713919025307</v>
+        <v>0.1171328401564474</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03029142891915284</v>
+        <v>0.03781565037452812</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>983468635.8302506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3619565214.519101</v>
+        <v>3231350938.535655</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1373813273709603</v>
+        <v>0.1205541190097298</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02367647477721128</v>
+        <v>0.02835036298487393</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>144</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1809782633.054885</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3241218506.411798</v>
+        <v>2721749497.757411</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09434137335435565</v>
+        <v>0.09154678502285313</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02687609562702871</v>
+        <v>0.02303378422047914</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1620609254.282657</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3037185235.017329</v>
+        <v>2338327819.739634</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1200376449441579</v>
+        <v>0.1407864172991188</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0274206186604632</v>
+        <v>0.02639306023082446</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>140</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1518592606.222542</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4071697425.573802</v>
+        <v>3878179785.492719</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1579623048060579</v>
+        <v>0.124436635088921</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02773905449646199</v>
+        <v>0.0237776828230202</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2035848789.192167</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3276695908.844047</v>
+        <v>3548532652.682787</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1645639963481796</v>
+        <v>0.2072801825805418</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0374996398040939</v>
+        <v>0.05558735752170621</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>183</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1638348080.038959</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_446.xlsx
+++ b/output/fit_clients/fit_round_446.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1949564947.960919</v>
+        <v>2166801823.829966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1062402130158076</v>
+        <v>0.1022277796738888</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04217395077939755</v>
+        <v>0.03774720935637841</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2157389725.141202</v>
+        <v>1601190544.404189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1529391238436528</v>
+        <v>0.1178940063242856</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03399393164066266</v>
+        <v>0.04947727449520294</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4998263143.939747</v>
+        <v>3667007264.107275</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1191040950142422</v>
+        <v>0.1655611899503547</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03720539589936464</v>
+        <v>0.03344505584104788</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3372647076.177203</v>
+        <v>2976128485.888856</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0749034694907954</v>
+        <v>0.1076413277906994</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03547001674178635</v>
+        <v>0.03767232130029027</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1888915956.065917</v>
+        <v>2811566342.513762</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09117874822597676</v>
+        <v>0.1493825733924813</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05350286372643166</v>
+        <v>0.04797821420735437</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2180015866.596478</v>
+        <v>2237321371.492148</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07149965932107406</v>
+        <v>0.08640359951150553</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03101468325661623</v>
+        <v>0.04216816924966334</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3513446751.730961</v>
+        <v>3556426391.691942</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2054997296477692</v>
+        <v>0.2110022390193628</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02483518043761656</v>
+        <v>0.03358381679360022</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1398131588.446644</v>
+        <v>1574392488.193697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1715400829128753</v>
+        <v>0.1517486696881051</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03383391899988376</v>
+        <v>0.0262499337243137</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4431022790.951638</v>
+        <v>5479126029.36191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1649116142219353</v>
+        <v>0.1886074246341138</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04619421776891484</v>
+        <v>0.03868854090241549</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3438163997.564887</v>
+        <v>3057006364.408336</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1313623485081732</v>
+        <v>0.1408493985071634</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04661342844300041</v>
+        <v>0.04718505139960194</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2621244258.858876</v>
+        <v>2929617463.246074</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1276979781648422</v>
+        <v>0.1500237219527963</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05107936175401125</v>
+        <v>0.04994532843536423</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4031904240.422913</v>
+        <v>5345910881.388847</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06669613065973164</v>
+        <v>0.08541029155975582</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02115771066471612</v>
+        <v>0.02524762530837114</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3787639226.856294</v>
+        <v>3002050172.544647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1397213157426214</v>
+        <v>0.1167950665545921</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03325435159385395</v>
+        <v>0.04092569181523927</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1622743807.068864</v>
+        <v>1756805494.743174</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09192282376315858</v>
+        <v>0.1053098765576625</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03701478525604837</v>
+        <v>0.02996091454619756</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2047253258.36346</v>
+        <v>2898188916.533954</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08303692084276861</v>
+        <v>0.106148576055633</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03440974919256268</v>
+        <v>0.04906511232002131</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4410530032.60533</v>
+        <v>4188772582.55553</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1508717736319227</v>
+        <v>0.1519265131247065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03342946962467899</v>
+        <v>0.04837663819962026</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3079591588.547375</v>
+        <v>3610352259.336214</v>
       </c>
       <c r="F18" t="n">
-        <v>0.183318951642613</v>
+        <v>0.1747886696372409</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02394361678692903</v>
+        <v>0.02119765519566658</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1163662932.098048</v>
+        <v>1240611161.187746</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1654236620641777</v>
+        <v>0.178797744567747</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02693203757837929</v>
+        <v>0.0263700106705809</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2684492508.22384</v>
+        <v>2580053921.53439</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1363639139336744</v>
+        <v>0.1110368940002027</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03072412678809526</v>
+        <v>0.0300315739648536</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2567562288.97144</v>
+        <v>2166175527.325816</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07601938318856824</v>
+        <v>0.07869387637530885</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02842901048404006</v>
+        <v>0.04346981800293846</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3138193975.977836</v>
+        <v>3085778739.856401</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1034510432967001</v>
+        <v>0.1341830520117696</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04675251369967506</v>
+        <v>0.03814989607505141</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1487606046.612799</v>
+        <v>1167344401.571588</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1524357104011011</v>
+        <v>0.1498777427904456</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04543404492136067</v>
+        <v>0.04387795889627754</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3799442631.392998</v>
+        <v>3312572112.61181</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1216509277420348</v>
+        <v>0.1502134159852695</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03060458816569541</v>
+        <v>0.03765868544240739</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1014939648.300332</v>
+        <v>1052776790.564385</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09205218540949013</v>
+        <v>0.07423638934142443</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03082206869418523</v>
+        <v>0.02379701077736172</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1290211471.383023</v>
+        <v>995669716.138504</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09604823521059686</v>
+        <v>0.1165073913365824</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02705600260251264</v>
+        <v>0.02563247374103441</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4519205566.309875</v>
+        <v>3052235509.14541</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1226848346366361</v>
+        <v>0.1344536973783972</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0269676769307516</v>
+        <v>0.02610199172762959</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3350634605.756763</v>
+        <v>3139452440.167759</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1112028124430701</v>
+        <v>0.09382184604734375</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03331595529509322</v>
+        <v>0.04358220186919516</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5006571342.454054</v>
+        <v>5764110409.76561</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1386470136586049</v>
+        <v>0.1032945999384262</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0358095442896681</v>
+        <v>0.03641284264182077</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1956519086.473568</v>
+        <v>2311650034.509827</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1235818698247775</v>
+        <v>0.106481439891291</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02453677783711057</v>
+        <v>0.02720374288162068</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1410575073.802724</v>
+        <v>1301179312.184192</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09867894233804124</v>
+        <v>0.07218286357569559</v>
       </c>
       <c r="G31" t="n">
-        <v>0.046635543718519</v>
+        <v>0.04674929091787357</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1378170855.425873</v>
+        <v>1608334927.37397</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07873476572159199</v>
+        <v>0.07525005050656958</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03735276646821933</v>
+        <v>0.03563765109872895</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2573290545.547781</v>
+        <v>1926419841.059172</v>
       </c>
       <c r="F33" t="n">
-        <v>0.175407304011051</v>
+        <v>0.1495817534712315</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05701160012804254</v>
+        <v>0.04128895637670678</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1166447395.493356</v>
+        <v>1400061832.478035</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1091395827470963</v>
+        <v>0.07565274031245359</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02072777658620635</v>
+        <v>0.01984605409559104</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1151156338.103134</v>
+        <v>967292369.3108822</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1081621317947123</v>
+        <v>0.09867063250744211</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03619661427227212</v>
+        <v>0.03706418165556869</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2175193035.90869</v>
+        <v>3218041446.875771</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1573459734205894</v>
+        <v>0.1125083748784136</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02342411457355404</v>
+        <v>0.02595225511065972</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2170844073.547012</v>
+        <v>2422822115.778839</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1028653397439293</v>
+        <v>0.07003260889899657</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04016657805093598</v>
+        <v>0.03293660940393845</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1472461572.62079</v>
+        <v>1360469213.755479</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08585672079316346</v>
+        <v>0.08433627431025147</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02734352955796246</v>
+        <v>0.03714720996737966</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2073435377.881522</v>
+        <v>2065572416.496867</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1817024137771026</v>
+        <v>0.1435207987703489</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03194425989163549</v>
+        <v>0.02228617217742718</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1640941980.05971</v>
+        <v>1666911035.586156</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1040794221699932</v>
+        <v>0.09816063032130791</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0499731058720195</v>
+        <v>0.0452251433867738</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2177378185.356708</v>
+        <v>2518107315.164868</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1117537101196774</v>
+        <v>0.1417817126337886</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04314634490434838</v>
+        <v>0.03806846661739063</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4165710453.029331</v>
+        <v>3856866273.19435</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07835996475768084</v>
+        <v>0.09053009005744531</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03040227286060314</v>
+        <v>0.03486851602110522</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2438551891.115702</v>
+        <v>3026172875.083447</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1519234739531127</v>
+        <v>0.1604910082047613</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01804183114858821</v>
+        <v>0.01957304786659501</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1696975852.547465</v>
+        <v>1782179611.160282</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1002662686949208</v>
+        <v>0.1013350990917757</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02686171862095629</v>
+        <v>0.02510004574854715</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2153451289.630497</v>
+        <v>1985149781.205941</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1314026636046677</v>
+        <v>0.1720306598332145</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03812452320259919</v>
+        <v>0.05312317824322872</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5676009945.521367</v>
+        <v>5238282427.535967</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1104958212532116</v>
+        <v>0.1508224146791742</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0416989468330689</v>
+        <v>0.04790746037158555</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4906729243.590425</v>
+        <v>3291621864.412647</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1812407576251337</v>
+        <v>0.1521875854684296</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04772470496989453</v>
+        <v>0.03921747905325303</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4617940513.363384</v>
+        <v>2950292836.799946</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08906519624024917</v>
+        <v>0.1068122397586504</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03313487017305408</v>
+        <v>0.02484731670553312</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1527676623.693267</v>
+        <v>1478141517.970594</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1575994164780817</v>
+        <v>0.170519407266877</v>
       </c>
       <c r="G49" t="n">
-        <v>0.027320058416752</v>
+        <v>0.03904564484649239</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4152740539.674463</v>
+        <v>2796324071.043091</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1710587701058824</v>
+        <v>0.1197105541520183</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04159068178364386</v>
+        <v>0.04416838813506034</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1169184342.642502</v>
+        <v>1517783379.338701</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1909371853438251</v>
+        <v>0.1319748141245387</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05124873933596422</v>
+        <v>0.04165214790140898</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4157911308.936084</v>
+        <v>3496195124.218778</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08522139013416317</v>
+        <v>0.1097628625619182</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0594672425879474</v>
+        <v>0.04917160630461419</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3244241218.365869</v>
+        <v>3671715018.920365</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1351713742279042</v>
+        <v>0.171134922496087</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0269959089567042</v>
+        <v>0.03309867563408998</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3476424998.616394</v>
+        <v>4769812710.064232</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1501495007372781</v>
+        <v>0.1328186044420611</v>
       </c>
       <c r="G54" t="n">
-        <v>0.039475308594694</v>
+        <v>0.0433475301989688</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3810146669.253302</v>
+        <v>4671229522.795461</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1598184125794984</v>
+        <v>0.1541429157927181</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02258211436709972</v>
+        <v>0.02989884247771501</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1260168954.457733</v>
+        <v>1564539291.579208</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1521252833843581</v>
+        <v>0.10371493165119</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04388173151525358</v>
+        <v>0.05444318031003754</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4070947402.036958</v>
+        <v>3074739297.211534</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1202040007637012</v>
+        <v>0.1148815357219665</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01784143124600357</v>
+        <v>0.02412796084631037</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1525450711.551478</v>
+        <v>1515639464.193928</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1991889406336979</v>
+        <v>0.1865172583823396</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0317004783514572</v>
+        <v>0.03480990093882605</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4213006112.485692</v>
+        <v>3373106942.685983</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09382107066882488</v>
+        <v>0.13078904056561</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03026999956082652</v>
+        <v>0.03023335084518267</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2773331528.833976</v>
+        <v>3102088208.745755</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1930444106687977</v>
+        <v>0.1791698632282379</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03173469371620913</v>
+        <v>0.02818110061255124</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2732630009.532381</v>
+        <v>3149322002.056078</v>
       </c>
       <c r="F61" t="n">
-        <v>0.121064415864542</v>
+        <v>0.16858256429563</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02641562696377394</v>
+        <v>0.02715488046230053</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1831245899.766253</v>
+        <v>1817552170.644679</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1535369739393568</v>
+        <v>0.193528793641965</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04108114824066018</v>
+        <v>0.04560277736448287</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4512760037.304967</v>
+        <v>3915842016.381912</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09191446931740377</v>
+        <v>0.08782483553302356</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03020657541824974</v>
+        <v>0.031948663598897</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4022807420.389622</v>
+        <v>4760737002.889284</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1776536329004489</v>
+        <v>0.1456975054230548</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03373907364558895</v>
+        <v>0.02254579352591304</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4940526391.178634</v>
+        <v>4597493744.214457</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1665399750521784</v>
+        <v>0.1523341729188917</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03223968442034255</v>
+        <v>0.02264070312951491</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5266285229.353312</v>
+        <v>4170068145.456623</v>
       </c>
       <c r="F66" t="n">
-        <v>0.145926382900481</v>
+        <v>0.1072687228797534</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03299342812583974</v>
+        <v>0.04048498300857469</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3488658397.489002</v>
+        <v>3458609489.222394</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07928307902659988</v>
+        <v>0.09577746742933602</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03307232118084253</v>
+        <v>0.05006660031642245</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4935652372.653345</v>
+        <v>4916079816.485552</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1581817831115371</v>
+        <v>0.1491491731577845</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04909668820216338</v>
+        <v>0.04687944672896495</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1813764580.387107</v>
+        <v>1771444156.385326</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1377204113567054</v>
+        <v>0.1826072384742869</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03840142327605788</v>
+        <v>0.05713486550656698</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2336418274.016016</v>
+        <v>2295298767.728514</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08779053066849701</v>
+        <v>0.07181100230091114</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0445799137648482</v>
+        <v>0.04180015981083712</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3425734964.619229</v>
+        <v>4455868764.636321</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1479374710036434</v>
+        <v>0.1627863720703782</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02464311992121753</v>
+        <v>0.02513488743321274</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1712591770.876827</v>
+        <v>1980637244.116718</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1028107948573929</v>
+        <v>0.06689049799409962</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05074283173107514</v>
+        <v>0.03278798441891997</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2755999871.325108</v>
+        <v>2604005793.385009</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07718614939684884</v>
+        <v>0.1084505494309927</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03249710056423236</v>
+        <v>0.04442692810033681</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3181548241.334878</v>
+        <v>3816072210.579539</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1722615580236285</v>
+        <v>0.1309566733452605</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02794930258011645</v>
+        <v>0.02575081753287124</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2309368542.756501</v>
+        <v>2428005652.049965</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1112502418819703</v>
+        <v>0.1582249986159043</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02768670641730368</v>
+        <v>0.02640428858024556</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3229535276.850688</v>
+        <v>3777979700.03762</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1038733794929623</v>
+        <v>0.07696105331096022</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02135993437744573</v>
+        <v>0.02633172738228065</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1796135488.040982</v>
+        <v>2158695727.33376</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1461475439140473</v>
+        <v>0.1654248401722221</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02683205705754841</v>
+        <v>0.02047508173226495</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3523166042.957228</v>
+        <v>4803708124.730381</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1166445403311967</v>
+        <v>0.1117334194609149</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05199566687622542</v>
+        <v>0.04158148011075998</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1452174351.729806</v>
+        <v>1727256850.126491</v>
       </c>
       <c r="F79" t="n">
-        <v>0.108819084408893</v>
+        <v>0.1688542952355117</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04034377447402293</v>
+        <v>0.02457141135661877</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5262552327.563185</v>
+        <v>5285045774.594367</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08692832782945373</v>
+        <v>0.08267597720189249</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02393575798867937</v>
+        <v>0.02362865438323154</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3891694651.373383</v>
+        <v>3422753598.773527</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1368980960692832</v>
+        <v>0.1017671482434723</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02838340876334989</v>
+        <v>0.02881425225921649</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3863525273.096368</v>
+        <v>5179236876.446167</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1318062886827021</v>
+        <v>0.1653240340070705</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02831738514051095</v>
+        <v>0.02284086393463563</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1879183243.013927</v>
+        <v>1523630635.884256</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1537302101897441</v>
+        <v>0.149237410781891</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03372880151007911</v>
+        <v>0.03984532524689432</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2193588505.632478</v>
+        <v>2583603413.094363</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09785299018100883</v>
+        <v>0.07788406060287516</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04130482189563905</v>
+        <v>0.03652997415138213</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2779935766.278912</v>
+        <v>2967296863.681705</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1548896937274072</v>
+        <v>0.1560417536359529</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04629156405188511</v>
+        <v>0.03796640730804512</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1988862942.229244</v>
+        <v>1915444887.725531</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1153999662018658</v>
+        <v>0.1610748066959032</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02252470697411846</v>
+        <v>0.0255055767832988</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1070994418.324558</v>
+        <v>1005410790.985357</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1629299209874513</v>
+        <v>0.1457227514876385</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03953056962544009</v>
+        <v>0.02729750883933127</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2902535149.444218</v>
+        <v>2815039444.780254</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1440638326943977</v>
+        <v>0.1121663651472323</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03038904889543561</v>
+        <v>0.03407398648851812</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2284413784.534713</v>
+        <v>2743766047.995847</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1457329192026801</v>
+        <v>0.119340233582954</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02813675768986624</v>
+        <v>0.03346761197231427</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1847673945.302023</v>
+        <v>2043202048.943356</v>
       </c>
       <c r="F90" t="n">
-        <v>0.115684363800869</v>
+        <v>0.1063427653865999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03503776540214137</v>
+        <v>0.04611951937950098</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2095185539.461406</v>
+        <v>1331276539.215997</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1660344336558725</v>
+        <v>0.126629672975081</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04948087733345269</v>
+        <v>0.03782915443229676</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2923154516.006155</v>
+        <v>2933149907.942995</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07848872763152276</v>
+        <v>0.08690841679625992</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03142503237837718</v>
+        <v>0.03252361241753326</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4794648723.474936</v>
+        <v>4298518002.80584</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08887750893154085</v>
+        <v>0.1353780875580458</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03438440035225644</v>
+        <v>0.05232819137286721</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2205377331.201533</v>
+        <v>2332285851.103123</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1428296661508995</v>
+        <v>0.1204651378018962</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03089715481067986</v>
+        <v>0.03236143271467863</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2678139052.573855</v>
+        <v>2099184547.957844</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1209847304697874</v>
+        <v>0.1031146735537832</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04238191481541272</v>
+        <v>0.04680650686754626</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2239286696.675282</v>
+        <v>1471243217.559381</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1171328401564474</v>
+        <v>0.09843237234254966</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03781565037452812</v>
+        <v>0.03413721225291936</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3231350938.535655</v>
+        <v>4102826496.007143</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1205541190097298</v>
+        <v>0.1611110865901907</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02835036298487393</v>
+        <v>0.01975902350315075</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2721749497.757411</v>
+        <v>2515499700.631192</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09154678502285313</v>
+        <v>0.08452683685339296</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02303378422047914</v>
+        <v>0.02949772861190956</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2338327819.739634</v>
+        <v>2739147403.542757</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1407864172991188</v>
+        <v>0.1292877872472641</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02639306023082446</v>
+        <v>0.02257122108087547</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3878179785.492719</v>
+        <v>3497064382.942761</v>
       </c>
       <c r="F100" t="n">
-        <v>0.124436635088921</v>
+        <v>0.1315117898984921</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0237776828230202</v>
+        <v>0.01942184037837979</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3548532652.682787</v>
+        <v>3469376216.781054</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2072801825805418</v>
+        <v>0.2085651190904919</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05558735752170621</v>
+        <v>0.04495092672327734</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_446.xlsx
+++ b/output/fit_clients/fit_round_446.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2166801823.829966</v>
+        <v>2332020496.614388</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1022277796738888</v>
+        <v>0.0849724090476546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03774720935637841</v>
+        <v>0.04038330802250711</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1601190544.404189</v>
+        <v>1772776141.839677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1178940063242856</v>
+        <v>0.1721194793017085</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04947727449520294</v>
+        <v>0.04932985951513152</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3667007264.107275</v>
+        <v>4410846742.691847</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1655611899503547</v>
+        <v>0.1312583296953916</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03344505584104788</v>
+        <v>0.02351428415504263</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>226</v>
+      </c>
+      <c r="J4" t="n">
+        <v>445</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.70319595538235</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2976128485.888856</v>
+        <v>4012082173.030893</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1076413277906994</v>
+        <v>0.06680206277213906</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03767232130029027</v>
+        <v>0.04956729353001815</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>187</v>
+      </c>
+      <c r="J5" t="n">
+        <v>446</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40.70879735913191</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2811566342.513762</v>
+        <v>2567817546.596361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1493825733924813</v>
+        <v>0.1333609403573539</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04797821420735437</v>
+        <v>0.03660686258091948</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2237321371.492148</v>
+        <v>2347147020.12231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08640359951150553</v>
+        <v>0.09283006107812171</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04216816924966334</v>
+        <v>0.03619069410341923</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3556426391.691942</v>
+        <v>3085144255.204271</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2110022390193628</v>
+        <v>0.19170565143746</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03358381679360022</v>
+        <v>0.0306229433564845</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>122</v>
+      </c>
+      <c r="J8" t="n">
+        <v>444</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1574392488.193697</v>
+        <v>2213093530.196872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1517486696881051</v>
+        <v>0.173297080858324</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0262499337243137</v>
+        <v>0.0282466005673918</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5479126029.36191</v>
+        <v>4625153749.889748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1886074246341138</v>
+        <v>0.1714592895667623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03868854090241549</v>
+        <v>0.03786762113957601</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>348</v>
+      </c>
+      <c r="J10" t="n">
+        <v>445</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36.40490028344819</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3057006364.408336</v>
+        <v>3291495998.991374</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1408493985071634</v>
+        <v>0.1458148236861372</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04718505139960194</v>
+        <v>0.04453870298282528</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>185</v>
+      </c>
+      <c r="J11" t="n">
+        <v>445</v>
+      </c>
+      <c r="K11" t="n">
+        <v>28.48351185339725</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2929617463.246074</v>
+        <v>3006952101.702153</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1500237219527963</v>
+        <v>0.1350700922357371</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04994532843536423</v>
+        <v>0.04243248433887989</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5345910881.388847</v>
+        <v>4283498262.969032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08541029155975582</v>
+        <v>0.0970513177181626</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02524762530837114</v>
+        <v>0.02802399331401398</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>231</v>
+      </c>
+      <c r="J13" t="n">
+        <v>446</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3002050172.544647</v>
+        <v>3387647998.831377</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1167950665545921</v>
+        <v>0.1206662064177175</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04092569181523927</v>
+        <v>0.03486182932297124</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>444</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1756805494.743174</v>
+        <v>1224291838.541317</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1053098765576625</v>
+        <v>0.09054071704461582</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02996091454619756</v>
+        <v>0.03418573388324732</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2898188916.533954</v>
+        <v>2690635326.538484</v>
       </c>
       <c r="F16" t="n">
-        <v>0.106148576055633</v>
+        <v>0.1115460778272107</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04906511232002131</v>
+        <v>0.03628808776831453</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4188772582.55553</v>
+        <v>3696356387.491434</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1519265131247065</v>
+        <v>0.1180442808740854</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04837663819962026</v>
+        <v>0.05162882584246375</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>217</v>
+      </c>
+      <c r="J17" t="n">
+        <v>445</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.15511249837282</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3610352259.336214</v>
+        <v>3657067255.240375</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1747886696372409</v>
+        <v>0.1193468566886295</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02119765519566658</v>
+        <v>0.02690683258434782</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>116</v>
+      </c>
+      <c r="J18" t="n">
+        <v>446</v>
+      </c>
+      <c r="K18" t="n">
+        <v>41.65754378950535</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1240611161.187746</v>
+        <v>913198742.6547058</v>
       </c>
       <c r="F19" t="n">
-        <v>0.178797744567747</v>
+        <v>0.1371723277643998</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0263700106705809</v>
+        <v>0.02145221476203677</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2580053921.53439</v>
+        <v>1830152910.466016</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1110368940002027</v>
+        <v>0.1168314113685961</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0300315739648536</v>
+        <v>0.02855380413226207</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2166175527.325816</v>
+        <v>2645831348.495684</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07869387637530885</v>
+        <v>0.06248121972478063</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04346981800293846</v>
+        <v>0.04329143635420445</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3085778739.856401</v>
+        <v>2869147929.953274</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1341830520117696</v>
+        <v>0.1171594826832593</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03814989607505141</v>
+        <v>0.05269861400719164</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1167344401.571588</v>
+        <v>1549253160.370118</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1498777427904456</v>
+        <v>0.1506693978446928</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04387795889627754</v>
+        <v>0.04785503158510716</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3312572112.61181</v>
+        <v>2517425666.24932</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1502134159852695</v>
+        <v>0.09095993571172939</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03765868544240739</v>
+        <v>0.02486613051591893</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>142</v>
+      </c>
+      <c r="J24" t="n">
+        <v>444</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1052776790.564385</v>
+        <v>1170550255.834955</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07423638934142443</v>
+        <v>0.07901262947097336</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02379701077736172</v>
+        <v>0.02658326118168584</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>995669716.138504</v>
+        <v>1441993850.853229</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1165073913365824</v>
+        <v>0.1049503145514921</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02563247374103441</v>
+        <v>0.03479478018761703</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1388,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3052235509.14541</v>
+        <v>3069270518.3076</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1344536973783972</v>
+        <v>0.1447228114117637</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02610199172762959</v>
+        <v>0.0196643185719699</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>194</v>
+      </c>
+      <c r="J27" t="n">
+        <v>445</v>
+      </c>
+      <c r="K27" t="n">
+        <v>21.23126148145557</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3139452440.167759</v>
+        <v>2522731721.581494</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09382184604734375</v>
+        <v>0.1447976584232078</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04358220186919516</v>
+        <v>0.03170685003067176</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5764110409.76561</v>
+        <v>5666880639.225791</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1032945999384262</v>
+        <v>0.1207479917445621</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03641284264182077</v>
+        <v>0.04540927236578082</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>364</v>
+      </c>
+      <c r="J29" t="n">
+        <v>445</v>
+      </c>
+      <c r="K29" t="n">
+        <v>33.50864042707546</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2311650034.509827</v>
+        <v>1514460783.840057</v>
       </c>
       <c r="F30" t="n">
-        <v>0.106481439891291</v>
+        <v>0.09243789052512914</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02720374288162068</v>
+        <v>0.03370834427869416</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1301179312.184192</v>
+        <v>1017522500.532332</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07218286357569559</v>
+        <v>0.0688586455159772</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04674929091787357</v>
+        <v>0.03587484407945028</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1608334927.37397</v>
+        <v>1298704231.115723</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07525005050656958</v>
+        <v>0.09154904120987453</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03563765109872895</v>
+        <v>0.02459406167377298</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1926419841.059172</v>
+        <v>2053573979.812456</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1495817534712315</v>
+        <v>0.2074370129124291</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04128895637670678</v>
+        <v>0.04533602587335628</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1400061832.478035</v>
+        <v>1152603277.794533</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07565274031245359</v>
+        <v>0.08531669473757292</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01984605409559104</v>
+        <v>0.02087000156380227</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>967292369.3108822</v>
+        <v>1162124325.657954</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09867063250744211</v>
+        <v>0.1180430679447516</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03706418165556869</v>
+        <v>0.03613282825964768</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1707,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3218041446.875771</v>
+        <v>2252498332.824018</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1125083748784136</v>
+        <v>0.169482016745399</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02595225511065972</v>
+        <v>0.02052655051144959</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2422822115.778839</v>
+        <v>2747669152.757194</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07003260889899657</v>
+        <v>0.0776868262728439</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03293660940393845</v>
+        <v>0.0273869316945936</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1360469213.755479</v>
+        <v>1804904366.449928</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08433627431025147</v>
+        <v>0.09312115643682164</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03714720996737966</v>
+        <v>0.02987833934375262</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2065572416.496867</v>
+        <v>1357901306.710982</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1435207987703489</v>
+        <v>0.1471469989644484</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02228617217742718</v>
+        <v>0.0326184350704311</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1666911035.586156</v>
+        <v>1716448172.066484</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09816063032130791</v>
+        <v>0.1168804325384008</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0452251433867738</v>
+        <v>0.03646965148844447</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2518107315.164868</v>
+        <v>2487298797.512809</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1417817126337886</v>
+        <v>0.1426104233200079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03806846661739063</v>
+        <v>0.03727875673160422</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1917,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3856866273.19435</v>
+        <v>4089367586.400465</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09053009005744531</v>
+        <v>0.09579550734981336</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03486851602110522</v>
+        <v>0.03613051505690046</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>194</v>
+      </c>
+      <c r="J42" t="n">
+        <v>446</v>
+      </c>
+      <c r="K42" t="n">
+        <v>41.86009968413311</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1954,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3026172875.083447</v>
+        <v>2483183664.80282</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1604910082047613</v>
+        <v>0.176873425660358</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01957304786659501</v>
+        <v>0.01656520914113189</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1782179611.160282</v>
+        <v>2332162271.555503</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1013350990917757</v>
+        <v>0.06324387180791477</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02510004574854715</v>
+        <v>0.02262382701492034</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1985149781.205941</v>
+        <v>2240248937.08258</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1720306598332145</v>
+        <v>0.1308485145545618</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05312317824322872</v>
+        <v>0.03785083089866616</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5238282427.535967</v>
+        <v>5187188264.457532</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1508224146791742</v>
+        <v>0.1156675586867727</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04790746037158555</v>
+        <v>0.04143388702873246</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>265</v>
+      </c>
+      <c r="J46" t="n">
+        <v>445</v>
+      </c>
+      <c r="K46" t="n">
+        <v>36.03118429067658</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3291621864.412647</v>
+        <v>4882067662.105568</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1521875854684296</v>
+        <v>0.1313889428833073</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03921747905325303</v>
+        <v>0.05856872125988678</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>201</v>
+      </c>
+      <c r="J47" t="n">
+        <v>445</v>
+      </c>
+      <c r="K47" t="n">
+        <v>36.57958283373399</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2133,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2950292836.799946</v>
+        <v>4089067275.541155</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1068122397586504</v>
+        <v>0.07720783613174555</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02484731670553312</v>
+        <v>0.03116915684335402</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>225</v>
+      </c>
+      <c r="J48" t="n">
+        <v>446</v>
+      </c>
+      <c r="K48" t="n">
+        <v>40.14879608042795</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2164,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1478141517.970594</v>
+        <v>1627596564.711945</v>
       </c>
       <c r="F49" t="n">
-        <v>0.170519407266877</v>
+        <v>0.1321349212293684</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03904564484649239</v>
+        <v>0.03748301230616745</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2199,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2796324071.043091</v>
+        <v>3542484491.383956</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1197105541520183</v>
+        <v>0.1569570666337343</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04416838813506034</v>
+        <v>0.05150424933598136</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>160</v>
+      </c>
+      <c r="J50" t="n">
+        <v>445</v>
+      </c>
+      <c r="K50" t="n">
+        <v>30.88039453837008</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2236,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1517783379.338701</v>
+        <v>1330564835.142896</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1319748141245387</v>
+        <v>0.1493701329941104</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04165214790140898</v>
+        <v>0.0503089534372393</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2271,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3496195124.218778</v>
+        <v>4278335417.403339</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1097628625619182</v>
+        <v>0.09066740919371241</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04917160630461419</v>
+        <v>0.06209477124324315</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>254</v>
+      </c>
+      <c r="J52" t="n">
+        <v>446</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2306,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3671715018.920365</v>
+        <v>3725829340.309967</v>
       </c>
       <c r="F53" t="n">
-        <v>0.171134922496087</v>
+        <v>0.1271845546456551</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03309867563408998</v>
+        <v>0.0249239915566821</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>67</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2347,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4769812710.064232</v>
+        <v>4595675546.568456</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1328186044420611</v>
+        <v>0.1657034688160621</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0433475301989688</v>
+        <v>0.04107731658909275</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>235</v>
+      </c>
+      <c r="J54" t="n">
+        <v>446</v>
+      </c>
+      <c r="K54" t="n">
+        <v>36.85291375366062</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2384,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4671229522.795461</v>
+        <v>3666499031.266269</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1541429157927181</v>
+        <v>0.1731632392060112</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02989884247771501</v>
+        <v>0.02724164056404581</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>221</v>
+      </c>
+      <c r="J55" t="n">
+        <v>446</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1564539291.579208</v>
+        <v>1490497038.307081</v>
       </c>
       <c r="F56" t="n">
-        <v>0.10371493165119</v>
+        <v>0.1066728426791874</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05444318031003754</v>
+        <v>0.05691488019653756</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3074739297.211534</v>
+        <v>4086723387.296108</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1148815357219665</v>
+        <v>0.1841468026990666</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02412796084631037</v>
+        <v>0.02191632475533192</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>193</v>
+      </c>
+      <c r="J57" t="n">
+        <v>446</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2489,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1515639464.193928</v>
+        <v>1269931925.201163</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1865172583823396</v>
+        <v>0.1573694187784305</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03480990093882605</v>
+        <v>0.02674072089767049</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2518,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3373106942.685983</v>
+        <v>3468312039.289691</v>
       </c>
       <c r="F59" t="n">
-        <v>0.13078904056561</v>
+        <v>0.09279737818686598</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03023335084518267</v>
+        <v>0.04498440921181613</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>218</v>
+      </c>
+      <c r="J59" t="n">
+        <v>445</v>
+      </c>
+      <c r="K59" t="n">
+        <v>25.99877552044599</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2555,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3102088208.745755</v>
+        <v>2872032749.66463</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1791698632282379</v>
+        <v>0.2058066966033938</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02818110061255124</v>
+        <v>0.02603289393453296</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2596,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3149322002.056078</v>
+        <v>3085424464.389097</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16858256429563</v>
+        <v>0.1495534339909093</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02715488046230053</v>
+        <v>0.02860729886551026</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1817552170.644679</v>
+        <v>1911162121.055919</v>
       </c>
       <c r="F62" t="n">
-        <v>0.193528793641965</v>
+        <v>0.1352391539283232</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04560277736448287</v>
+        <v>0.04849480431864189</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2666,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3915842016.381912</v>
+        <v>5499174295.094902</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08782483553302356</v>
+        <v>0.08532950861233848</v>
       </c>
       <c r="G63" t="n">
-        <v>0.031948663598897</v>
+        <v>0.03726685845670925</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>222</v>
+      </c>
+      <c r="J63" t="n">
+        <v>446</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2695,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4760737002.889284</v>
+        <v>3806387789.032155</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1456975054230548</v>
+        <v>0.1898722397542099</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02254579352591304</v>
+        <v>0.03527757249222509</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>223</v>
+      </c>
+      <c r="J64" t="n">
+        <v>446</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4597493744.214457</v>
+        <v>3962118019.958979</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1523341729188917</v>
+        <v>0.1196185045847463</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02264070312951491</v>
+        <v>0.02153591390595185</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>320</v>
+      </c>
+      <c r="J65" t="n">
+        <v>446</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4170068145.456623</v>
+        <v>5594655981.757824</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1072687228797534</v>
+        <v>0.1140220660024379</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04048498300857469</v>
+        <v>0.03719877186578903</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>220</v>
+      </c>
+      <c r="J66" t="n">
+        <v>445</v>
+      </c>
+      <c r="K66" t="n">
+        <v>35.45875008244027</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3458609489.222394</v>
+        <v>3287071545.628686</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09577746742933602</v>
+        <v>0.08779395104299326</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05006660031642245</v>
+        <v>0.05092867420677102</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2837,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4916079816.485552</v>
+        <v>4494159928.333717</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1491491731577845</v>
+        <v>0.126582665878221</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04687944672896495</v>
+        <v>0.04543684054345776</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>243</v>
+      </c>
+      <c r="J68" t="n">
+        <v>445</v>
+      </c>
+      <c r="K68" t="n">
+        <v>35.66227470192082</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1771444156.385326</v>
+        <v>1567576374.837893</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1826072384742869</v>
+        <v>0.1158638459596409</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05713486550656698</v>
+        <v>0.05188168074668047</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2295298767.728514</v>
+        <v>2288226228.194683</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07181100230091114</v>
+        <v>0.06379610128705339</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04180015981083712</v>
+        <v>0.04306935829028958</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4455868764.636321</v>
+        <v>3567495638.492604</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1627863720703782</v>
+        <v>0.1755893811354692</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02513488743321274</v>
+        <v>0.0302814850286246</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>306</v>
+      </c>
+      <c r="J71" t="n">
+        <v>446</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1980637244.116718</v>
+        <v>1875405587.543869</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06689049799409962</v>
+        <v>0.1012610099815942</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03278798441891997</v>
+        <v>0.03774216958614465</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2604005793.385009</v>
+        <v>3263425790.840569</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1084505494309927</v>
+        <v>0.07207353379071237</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04442692810033681</v>
+        <v>0.0447409215807334</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3816072210.579539</v>
+        <v>2531764768.600535</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1309566733452605</v>
+        <v>0.1840991627401522</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02575081753287124</v>
+        <v>0.03096793631769743</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>128</v>
+      </c>
+      <c r="J74" t="n">
+        <v>443</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2428005652.049965</v>
+        <v>1525588798.099705</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1582249986159043</v>
+        <v>0.1503906553773958</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02640428858024556</v>
+        <v>0.03257829676020847</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3777979700.03762</v>
+        <v>3805654803.331704</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07696105331096022</v>
+        <v>0.08991207234283068</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02633172738228065</v>
+        <v>0.02967289521102225</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>212</v>
+      </c>
+      <c r="J76" t="n">
+        <v>446</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2158695727.33376</v>
+        <v>1972666535.780705</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1654248401722221</v>
+        <v>0.1588961792631338</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02047508173226495</v>
+        <v>0.03160412469762006</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4803708124.730381</v>
+        <v>3359112662.119114</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1117334194609149</v>
+        <v>0.08870622669116557</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04158148011075998</v>
+        <v>0.0494693471420257</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>222</v>
+      </c>
+      <c r="J78" t="n">
+        <v>442</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1727256850.126491</v>
+        <v>1375606340.278487</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1688542952355117</v>
+        <v>0.1491437165809253</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02457141135661877</v>
+        <v>0.02480214719918108</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5285045774.594367</v>
+        <v>5088239189.128946</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08267597720189249</v>
+        <v>0.07441013844599857</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02362865438323154</v>
+        <v>0.03518774387882454</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>217</v>
+      </c>
+      <c r="J80" t="n">
+        <v>446</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3422753598.773527</v>
+        <v>3210791815.632654</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1017671482434723</v>
+        <v>0.1295818353051852</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02881425225921649</v>
+        <v>0.02119150284223986</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>207</v>
+      </c>
+      <c r="J81" t="n">
+        <v>444</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5179236876.446167</v>
+        <v>4105938986.559566</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1653240340070705</v>
+        <v>0.2083456665449067</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02284086393463563</v>
+        <v>0.02797793026663213</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>298</v>
+      </c>
+      <c r="J82" t="n">
+        <v>446</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1523630635.884256</v>
+        <v>1611913671.064112</v>
       </c>
       <c r="F83" t="n">
-        <v>0.149237410781891</v>
+        <v>0.144855002972714</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03984532524689432</v>
+        <v>0.03082719279790999</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2583603413.094363</v>
+        <v>1848826994.640292</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07788406060287516</v>
+        <v>0.1169646235801849</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03652997415138213</v>
+        <v>0.04612388138440299</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2967296863.681705</v>
+        <v>3477941511.424011</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1560417536359529</v>
+        <v>0.1633754387237127</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03796640730804512</v>
+        <v>0.03999085593604947</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>446</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1915444887.725531</v>
+        <v>1766794379.86486</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1610748066959032</v>
+        <v>0.1460649468446832</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0255055767832988</v>
+        <v>0.02089295217232863</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1005410790.985357</v>
+        <v>1376510452.751226</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1457227514876385</v>
+        <v>0.1337363894830828</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02729750883933127</v>
+        <v>0.04264446754982889</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2815039444.780254</v>
+        <v>2852652979.437929</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1121663651472323</v>
+        <v>0.1335264158494854</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03407398648851812</v>
+        <v>0.03918964924215607</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2743766047.995847</v>
+        <v>3162372734.074179</v>
       </c>
       <c r="F89" t="n">
-        <v>0.119340233582954</v>
+        <v>0.1278128839359226</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03346761197231427</v>
+        <v>0.03410864340293227</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2043202048.943356</v>
+        <v>1684844240.034614</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1063427653865999</v>
+        <v>0.1352391563868488</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04611951937950098</v>
+        <v>0.05228542717847632</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1331276539.215997</v>
+        <v>1682060176.650841</v>
       </c>
       <c r="F91" t="n">
-        <v>0.126629672975081</v>
+        <v>0.1629969260161899</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03782915443229676</v>
+        <v>0.05140453942394571</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2933149907.942995</v>
+        <v>2480413820.745925</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08690841679625992</v>
+        <v>0.1005191317250178</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03252361241753326</v>
+        <v>0.03006495051873834</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4298518002.80584</v>
+        <v>4103480611.135664</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1353780875580458</v>
+        <v>0.1249591601084293</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05232819137286721</v>
+        <v>0.03682529408460763</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>214</v>
+      </c>
+      <c r="J93" t="n">
+        <v>445</v>
+      </c>
+      <c r="K93" t="n">
+        <v>36.34095914825339</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2332285851.103123</v>
+        <v>1869096607.966222</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1204651378018962</v>
+        <v>0.1123187761400638</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03236143271467863</v>
+        <v>0.03078613630029186</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2099184547.957844</v>
+        <v>3145847146.392401</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031146735537832</v>
+        <v>0.09828205043145992</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04680650686754626</v>
+        <v>0.04404924563339906</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1471243217.559381</v>
+        <v>1476066843.228631</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09843237234254966</v>
+        <v>0.1086270724535958</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03413721225291936</v>
+        <v>0.02900590083361174</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3862,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4102826496.007143</v>
+        <v>3788767848.614976</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1611110865901907</v>
+        <v>0.1327414462419441</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01975902350315075</v>
+        <v>0.02798645488451204</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>233</v>
+      </c>
+      <c r="J97" t="n">
+        <v>446</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2515499700.631192</v>
+        <v>3438009695.124714</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08452683685339296</v>
+        <v>0.1162184581110175</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02949772861190956</v>
+        <v>0.03069787707343058</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>446</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3932,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2739147403.542757</v>
+        <v>2892679792.703577</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1292877872472641</v>
+        <v>0.1191281180310879</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02257122108087547</v>
+        <v>0.0286130158098305</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3497064382.942761</v>
+        <v>3506336065.186131</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1315117898984921</v>
+        <v>0.1551602223188841</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01942184037837979</v>
+        <v>0.02472651918876197</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>207</v>
+      </c>
+      <c r="J100" t="n">
+        <v>445</v>
+      </c>
+      <c r="K100" t="n">
+        <v>26.60827672443017</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3469376216.781054</v>
+        <v>2452064749.612308</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2085651190904919</v>
+        <v>0.2214417957212045</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04495092672327734</v>
+        <v>0.03729493679283401</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="n">
+        <v>25.59731595361678</v>
       </c>
     </row>
   </sheetData>
